--- a/Wedding/WeddingFavourList 1.xlsx
+++ b/Wedding/WeddingFavourList 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenny.Lim\Desktop\Lighthouse Repos\About\Wedding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inforonline-my.sharepoint.com/personal/kenny_lim_infor_com/Documents/Desktop/GitHub/About/Wedding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55286B87-AB1D-43F6-A63C-5063F74AAD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{55286B87-AB1D-43F6-A63C-5063F74AAD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E865606-F9ED-4361-90D6-25DB04B00B00}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="23500" xr2:uid="{C17A7A06-381D-4E53-AF97-10A3D7EDA547}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C17A7A06-381D-4E53-AF97-10A3D7EDA547}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -759,15 +759,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -777,6 +768,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1096,20 +1096,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF59B26A-344D-47F2-AA0F-BC613C40C228}">
   <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.36328125" customWidth="1"/>
-    <col min="3" max="3" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1280,55 +1280,55 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
+      <c r="D13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
       <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
+      <c r="D15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>15</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>16</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>21</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>34</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>35</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>36</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>37</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>38</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>40</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>41</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>59</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>52</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>54</v>
       </c>
@@ -1580,73 +1580,73 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D35" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C36" s="10"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D37" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>63</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>64</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>65</v>
       </c>
@@ -1688,29 +1688,29 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D44" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>68</v>
       </c>
@@ -1724,81 +1724,81 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D47" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D50" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D52" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>76</v>
       </c>
@@ -1812,29 +1812,29 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D55" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>79</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>80</v>
       </c>
@@ -1862,30 +1862,30 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E59" s="5" t="s">
+      <c r="D59" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="12" t="s">
         <v>45</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
       <c r="G60" t="s">
         <v>192</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>83</v>
       </c>
@@ -1915,788 +1915,788 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B63" s="9" t="s">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D63" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B64" s="9" t="s">
+      <c r="D63" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D64" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B65" s="9" t="s">
+      <c r="D64" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B66" s="9" t="s">
+      <c r="D65" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B67" s="9" t="s">
+      <c r="D66" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D67" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B68" s="9" t="s">
+      <c r="D67" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B69" s="9" t="s">
+      <c r="D68" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D69" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B70" s="9" t="s">
+      <c r="D69" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D70" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E70" s="11" t="s">
+      <c r="D70" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E70" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B71" s="9" t="s">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B72" s="9" t="s">
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D72" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B73" s="9" t="s">
+      <c r="D72" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D73" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B74" s="9" t="s">
+      <c r="D73" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D74" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B75" s="9" t="s">
+      <c r="D74" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D75" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B76" s="9" t="s">
+      <c r="D75" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D76" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B77" s="9" t="s">
+      <c r="D76" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D77" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B78" s="9" t="s">
+      <c r="D77" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D78" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B79" s="9" t="s">
+      <c r="D78" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D79" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B80" s="9" t="s">
+      <c r="D79" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D80" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E80" s="9" t="s">
+      <c r="D80" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B81" s="9" t="s">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D81" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B82" s="9" t="s">
+      <c r="D81" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D82" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B83" s="9" t="s">
+      <c r="D82" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D83" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B84" s="9" t="s">
+      <c r="D83" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D84" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B85" s="9" t="s">
+      <c r="D84" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D85" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B86" s="9" t="s">
+      <c r="D85" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D86" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B87" s="9" t="s">
+      <c r="D86" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D87" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B88" s="9" t="s">
+      <c r="D87" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D88" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B89" s="9" t="s">
+      <c r="D88" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D89" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B90" s="9" t="s">
+      <c r="D89" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D90" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B91" s="9" t="s">
+      <c r="D90" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D91" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B92" s="9" t="s">
+      <c r="D91" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D92" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B93" s="9" t="s">
+      <c r="D92" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B94" s="9" t="s">
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D94" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B95" s="9" t="s">
+      <c r="D94" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D95" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E95" s="9" t="s">
+      <c r="D95" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B96" s="9" t="s">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D96" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E96" s="9" t="s">
+      <c r="D96" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B97" s="9" t="s">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D97" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B98" s="9" t="s">
+      <c r="D97" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D98" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B99" s="9" t="s">
+      <c r="D98" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D99" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B100" s="9" t="s">
+      <c r="D99" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D100" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B101" s="9" t="s">
+      <c r="D100" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D101" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B102" s="9" t="s">
+      <c r="D101" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D102" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B103" s="9" t="s">
+      <c r="D102" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D103" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B104" s="8" t="s">
+      <c r="D103" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D104" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B105" s="9" t="s">
+      <c r="D104" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D105" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B106" s="9" t="s">
+      <c r="D105" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D106" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E106" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B107" s="9" t="s">
+      <c r="D106" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B108" s="9" t="s">
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D108" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B109" s="9" t="s">
+      <c r="D108" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C109" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D109" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B110" s="9" t="s">
+      <c r="D109" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D110" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E110" s="9" t="s">
+      <c r="D110" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E110" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B111" s="9" t="s">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="D111" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E111" s="11" t="s">
+      <c r="D111" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E111" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B112" s="9" t="s">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B113" s="9" t="s">
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D113" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E113" s="9" t="s">
+      <c r="D113" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E113" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B114" s="8" t="s">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D114" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E114" s="8" t="s">
+      <c r="D114" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E114" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B115" s="9" t="s">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D115" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B116" s="9" t="s">
+      <c r="D115" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C116" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D116" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B117" s="9" t="s">
+      <c r="D116" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D117" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E117" s="11" t="s">
+      <c r="D117" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E117" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B118" s="9" t="s">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B119" s="9" t="s">
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D119" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E119" s="9" t="s">
+      <c r="D119" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E119" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B120" s="9" t="s">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D120" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E120" s="9" t="s">
+      <c r="D120" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E120" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G120" t="s">
@@ -2707,17 +2707,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B121" s="9" t="s">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D121" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E121" s="9" t="s">
+      <c r="D121" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E121" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G121" t="s">
@@ -2728,12 +2728,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G123" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G124" t="s">
         <v>192</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G125" t="s">
         <v>193</v>
       </c>
@@ -2751,12 +2751,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G127" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G128" t="s">
         <v>128</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G129" t="s">
         <v>43</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G130" t="s">
         <v>204</v>
       </c>
@@ -2782,12 +2782,41 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="C117:C118"/>
     <mergeCell ref="D117:D118"/>
     <mergeCell ref="E117:E118"/>
@@ -2797,41 +2826,12 @@
     <mergeCell ref="C111:C112"/>
     <mergeCell ref="D111:D112"/>
     <mergeCell ref="E111:E112"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Wedding/WeddingFavourList 1.xlsx
+++ b/Wedding/WeddingFavourList 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inforonline-my.sharepoint.com/personal/kenny_lim_infor_com/Documents/Desktop/GitHub/About/Wedding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenny.Lim\Desktop\Lighthouse Repos\About\Wedding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{55286B87-AB1D-43F6-A63C-5063F74AAD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E865606-F9ED-4361-90D6-25DB04B00B00}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5146F53A-2DEC-4EE8-AF8C-ABDE3825FAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C17A7A06-381D-4E53-AF97-10A3D7EDA547}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="23500" xr2:uid="{C17A7A06-381D-4E53-AF97-10A3D7EDA547}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="214">
   <si>
     <t>#</t>
   </si>
@@ -452,9 +452,6 @@
   </si>
   <si>
     <t>Donovan</t>
-  </si>
-  <si>
-    <t>Cynthia</t>
   </si>
   <si>
     <t>Demi</t>
@@ -718,7 +715,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,6 +734,12 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -751,17 +754,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -770,11 +785,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1096,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF59B26A-344D-47F2-AA0F-BC613C40C228}">
   <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R73" sqref="R73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1148,7 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="10" t="s">
         <v>133</v>
       </c>
       <c r="D2" t="s">
@@ -1144,7 +1162,7 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="10" t="s">
         <v>134</v>
       </c>
       <c r="D3" t="s">
@@ -1158,8 +1176,8 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>202</v>
+      <c r="C4" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
@@ -1172,8 +1190,8 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>201</v>
+      <c r="C5" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="D5" t="s">
         <v>43</v>
@@ -1186,8 +1204,8 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>200</v>
+      <c r="C6" s="11" t="s">
+        <v>199</v>
       </c>
       <c r="D6" t="s">
         <v>43</v>
@@ -1200,7 +1218,7 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="10" t="s">
         <v>137</v>
       </c>
       <c r="D7" t="s">
@@ -1214,7 +1232,7 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="10" t="s">
         <v>135</v>
       </c>
       <c r="D8" t="s">
@@ -1228,7 +1246,7 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="10" t="s">
         <v>136</v>
       </c>
       <c r="D9" t="s">
@@ -1242,7 +1260,7 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
@@ -1256,7 +1274,7 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D11" t="s">
@@ -1267,72 +1285,72 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="17"/>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="C13" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="17"/>
       <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="17"/>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="D15" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="17"/>
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D17" t="s">
@@ -1346,7 +1364,7 @@
       <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D18" t="s">
@@ -1360,7 +1378,7 @@
       <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D19" t="s">
@@ -1374,7 +1392,7 @@
       <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D20" t="s">
@@ -1388,7 +1406,7 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D21" t="s">
@@ -1402,7 +1420,7 @@
       <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D22" t="s">
@@ -1416,7 +1434,7 @@
       <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D23" t="s">
@@ -1430,7 +1448,7 @@
       <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D24" t="s">
@@ -1444,7 +1462,7 @@
       <c r="B25" t="s">
         <v>36</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D25" t="s">
@@ -1458,7 +1476,7 @@
       <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D26" t="s">
@@ -1472,7 +1490,7 @@
       <c r="B27" t="s">
         <v>38</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D27" t="s">
@@ -1486,7 +1504,7 @@
       <c r="B28" t="s">
         <v>39</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D28" t="s">
@@ -1497,58 +1515,58 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="D31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="D32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1556,7 +1574,7 @@
       <c r="B33" t="s">
         <v>52</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D33" t="s">
@@ -1570,7 +1588,7 @@
       <c r="B34" t="s">
         <v>54</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D34" t="s">
@@ -1584,13 +1602,13 @@
       <c r="B35" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="12" t="s">
+      <c r="C35" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="19" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1598,21 +1616,21 @@
       <c r="B36" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="12" t="s">
+      <c r="D37" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="19" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1620,21 +1638,21 @@
       <c r="B38" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="12" t="s">
+      <c r="D39" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="19" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1642,15 +1660,15 @@
       <c r="B40" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>63</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D41" t="s">
@@ -1664,7 +1682,7 @@
       <c r="B42" t="s">
         <v>64</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="10" t="s">
         <v>64</v>
       </c>
       <c r="D42" t="s">
@@ -1678,7 +1696,7 @@
       <c r="B43" t="s">
         <v>65</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="10" t="s">
         <v>65</v>
       </c>
       <c r="D43" t="s">
@@ -1692,13 +1710,13 @@
       <c r="B44" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="12" t="s">
+      <c r="D44" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="19" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1706,15 +1724,15 @@
       <c r="B45" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>68</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="10" t="s">
         <v>68</v>
       </c>
       <c r="D46" t="s">
@@ -1728,13 +1746,13 @@
       <c r="B47" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="12" t="s">
+      <c r="D47" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="19" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1742,29 +1760,29 @@
       <c r="B48" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="12" t="s">
+      <c r="D50" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="19" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1772,21 +1790,21 @@
       <c r="B51" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" s="12" t="s">
+      <c r="D52" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="19" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1794,15 +1812,15 @@
       <c r="B53" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>76</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D54" t="s">
@@ -1816,13 +1834,13 @@
       <c r="B55" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" s="12" t="s">
+      <c r="D55" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" s="19" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1830,15 +1848,15 @@
       <c r="B56" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>79</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="10" t="s">
         <v>79</v>
       </c>
       <c r="D57" t="s">
@@ -1852,7 +1870,7 @@
       <c r="B58" t="s">
         <v>80</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="10" t="s">
         <v>80</v>
       </c>
       <c r="D58" t="s">
@@ -1866,16 +1884,16 @@
       <c r="B59" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G59" s="4" t="s">
+      <c r="D59" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1883,11 +1901,11 @@
       <c r="B60" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
       <c r="G60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H60">
         <f>COUNTIF(E2:E61,"Alc")</f>
@@ -1898,7 +1916,7 @@
       <c r="B61" t="s">
         <v>83</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="10" t="s">
         <v>83</v>
       </c>
       <c r="D61" t="s">
@@ -1908,7 +1926,7 @@
         <v>45</v>
       </c>
       <c r="G61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H61">
         <f>COUNTIF(E2:E61,"Non-Alc")</f>
@@ -1916,812 +1934,804 @@
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C107" s="13"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C112" s="13"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C115" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E70" s="8" t="s">
+      <c r="D115" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E117" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="6" t="s">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C118" s="13"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G120" t="s">
         <v>191</v>
-      </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G120" t="s">
-        <v>192</v>
       </c>
       <c r="H120">
         <f>COUNTIF(E63:E121,"Alc")</f>
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E121" s="6" t="s">
+      <c r="B121" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E121" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G121" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H121">
         <f>COUNTIF(E63:E121,"Non-Alc")</f>
@@ -2729,22 +2739,22 @@
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G123" s="4" t="s">
-        <v>194</v>
+      <c r="G123" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G124" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H124">
         <f>SUM(H120,H60)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G125" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H125">
         <f>SUM(H121,H61)</f>
@@ -2753,7 +2763,7 @@
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G127" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
@@ -2774,7 +2784,7 @@
     </row>
     <row r="130" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G130" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H130">
         <v>13</v>

--- a/Wedding/WeddingFavourList 1.xlsx
+++ b/Wedding/WeddingFavourList 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenny.Lim\Desktop\Lighthouse Repos\About\Wedding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5146F53A-2DEC-4EE8-AF8C-ABDE3825FAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3341226-73AF-40F8-9278-EB6EC8BE84BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="23500" xr2:uid="{C17A7A06-381D-4E53-AF97-10A3D7EDA547}"/>
+    <workbookView xWindow="-24730" yWindow="2740" windowWidth="21640" windowHeight="12670" xr2:uid="{C17A7A06-381D-4E53-AF97-10A3D7EDA547}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -773,6 +773,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -783,18 +795,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1112,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF59B26A-344D-47F2-AA0F-BC613C40C228}">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R73" sqref="R73"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,52 +1299,52 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="15"/>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="15"/>
       <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="15"/>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="15"/>
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -1602,13 +1602,13 @@
       <c r="B35" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="D35" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="19" t="s">
+      <c r="D35" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1616,21 +1616,21 @@
       <c r="B36" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="19" t="s">
+      <c r="D37" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1638,21 +1638,21 @@
       <c r="B38" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="19" t="s">
+      <c r="D39" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1660,9 +1660,9 @@
       <c r="B40" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
@@ -1710,13 +1710,13 @@
       <c r="B44" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="19" t="s">
+      <c r="D44" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="13" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1724,9 +1724,9 @@
       <c r="B45" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -1746,13 +1746,13 @@
       <c r="B47" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="19" t="s">
+      <c r="D47" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="13" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1760,29 +1760,29 @@
       <c r="B48" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="19" t="s">
+      <c r="D50" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="13" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1790,21 +1790,21 @@
       <c r="B51" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" s="19" t="s">
+      <c r="D52" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="13" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1812,9 +1812,9 @@
       <c r="B53" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
@@ -1834,13 +1834,13 @@
       <c r="B55" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" s="19" t="s">
+      <c r="D55" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" s="13" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1848,9 +1848,9 @@
       <c r="B56" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
@@ -1884,13 +1884,13 @@
       <c r="B59" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E59" s="19" t="s">
+      <c r="D59" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="13" t="s">
         <v>45</v>
       </c>
       <c r="G59" s="3" t="s">
@@ -1901,9 +1901,9 @@
       <c r="B60" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
       <c r="G60" t="s">
         <v>191</v>
       </c>
@@ -2035,13 +2035,13 @@
       <c r="B70" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="D70" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E70" s="14" t="s">
+      <c r="D70" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E70" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2049,9 +2049,9 @@
       <c r="B71" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
@@ -2337,13 +2337,13 @@
       <c r="B92" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C92" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="D92" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E92" s="14" t="s">
+      <c r="D92" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E92" s="18" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2351,9 +2351,9 @@
       <c r="B93" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
@@ -2496,53 +2496,61 @@
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="4"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
+      <c r="B104" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E105" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E105" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E106" s="14" t="s">
-        <v>45</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C106" s="17"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
+        <v>142</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>128</v>
@@ -2553,88 +2561,88 @@
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>128</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E110" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E110" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D111" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E111" s="14" t="s">
-        <v>46</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C111" s="17"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C112" s="13"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
+        <v>147</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>46</v>
+      <c r="B113" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>188</v>
+      <c r="B114" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>128</v>
@@ -2645,63 +2653,70 @@
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>45</v>
+        <v>151</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D117" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E117" s="14" t="s">
-        <v>46</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C117" s="17"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C118" s="13"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
+        <v>153</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>128</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>128</v>
+        <v>45</v>
+      </c>
+      <c r="G119" t="s">
+        <v>191</v>
+      </c>
+      <c r="H119">
+        <f>COUNTIF(E63:E120,"Alc")</f>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>128</v>
@@ -2710,100 +2725,98 @@
         <v>45</v>
       </c>
       <c r="G120" t="s">
+        <v>192</v>
+      </c>
+      <c r="H120">
+        <f>COUNTIF(E63:E120,"Non-Alc")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G122" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G123" t="s">
         <v>191</v>
       </c>
-      <c r="H120">
-        <f>COUNTIF(E63:E121,"Alc")</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G121" t="s">
-        <v>192</v>
-      </c>
-      <c r="H121">
-        <f>COUNTIF(E63:E121,"Non-Alc")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G123" s="3" t="s">
-        <v>193</v>
+      <c r="H123">
+        <f>SUM(H119,H60)</f>
+        <v>88</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G124" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H124">
-        <f>SUM(H120,H60)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G125" t="s">
-        <v>192</v>
-      </c>
-      <c r="H125">
-        <f>SUM(H121,H61)</f>
+        <f>SUM(H120,H61)</f>
         <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G126" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G127" t="s">
-        <v>202</v>
+        <v>128</v>
+      </c>
+      <c r="H127">
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G128" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="H128">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G129" t="s">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="H129">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="130" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G130" t="s">
-        <v>203</v>
-      </c>
-      <c r="H130">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D37:D38"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="D47:D49"/>
     <mergeCell ref="E47:E49"/>
@@ -2811,37 +2824,18 @@
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="E39:E40"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
